--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H2">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N2">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q2">
-        <v>13.152094680987</v>
+        <v>26.7645985853125</v>
       </c>
       <c r="R2">
-        <v>52.608378723948</v>
+        <v>107.05839434125</v>
       </c>
       <c r="S2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="T2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H3">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
         <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q3">
-        <v>19.91887475939267</v>
+        <v>32.84193673282916</v>
       </c>
       <c r="R3">
-        <v>119.513248556356</v>
+        <v>197.051620396975</v>
       </c>
       <c r="S3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="T3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H4">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N4">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q4">
-        <v>17.860770520752</v>
+        <v>16.8189191560375</v>
       </c>
       <c r="R4">
-        <v>107.164623124512</v>
+        <v>100.913514936225</v>
       </c>
       <c r="S4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="T4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H5">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N5">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q5">
-        <v>16.268744369692</v>
+        <v>21.27004476396875</v>
       </c>
       <c r="R5">
-        <v>65.07497747876799</v>
+        <v>85.08017905587499</v>
       </c>
       <c r="S5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="T5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H6">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N6">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q6">
-        <v>9.85490373082</v>
+        <v>11.80517073504583</v>
       </c>
       <c r="R6">
-        <v>59.12942238492</v>
+        <v>70.83102441027501</v>
       </c>
       <c r="S6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="T6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H7">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N7">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q7">
-        <v>19.70198544811466</v>
+        <v>21.19397666112084</v>
       </c>
       <c r="R7">
-        <v>118.211912688688</v>
+        <v>127.163859966725</v>
       </c>
       <c r="S7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="T7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
     </row>
   </sheetData>
